--- a/fds_test_report.xlsx
+++ b/fds_test_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zheng\IdeaProjects\FraudDetectionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA1437-3D31-4C38-981C-33EF5B5185F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F35AA-20F6-4ED7-A3D7-348105504C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BB5A2B0-B34C-4401-96F1-AF557ABE10F3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>1) Test with localstack</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,13 +57,6 @@
   </si>
   <si>
     <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Create Queue in localstack
-2. Fill messages into in-queue 
-3. run FDSConsumer program
-4. check whether the data is written in out-queue with risk score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -592,7 +585,7 @@
   <dimension ref="C1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,7 +607,7 @@
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -625,7 +618,7 @@
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -635,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -646,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -657,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
@@ -665,10 +658,10 @@
     </row>
     <row r="7" spans="3:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>5</v>
@@ -676,10 +669,10 @@
     </row>
     <row r="8" spans="3:5" ht="69" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
